--- a/Chapter1/第一章电子表格.xlsx
+++ b/Chapter1/第一章电子表格.xlsx
@@ -5,14 +5,19 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/86b411e51f05ee88/Github/FMinSI/Chapter1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pkuzzqstandard\OneDrive\Github\FMinSI\Chapter1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9288"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9288" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="表1.2" sheetId="1" r:id="rId1"/>
+    <sheet name="表1.3" sheetId="2" r:id="rId2"/>
+    <sheet name="表1.4" sheetId="3" r:id="rId3"/>
+    <sheet name="表1.5" sheetId="4" r:id="rId4"/>
+    <sheet name="表1.6" sheetId="5" r:id="rId5"/>
+    <sheet name="表1.7" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +29,320 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="259">
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>AT&amp;T Stadium</t>
+  </si>
+  <si>
+    <t>City of Arlington, Texas</t>
+  </si>
+  <si>
+    <t>Sales tax, hotel tax, rental car tax</t>
+  </si>
+  <si>
+    <t>Camden Yards</t>
+  </si>
+  <si>
+    <t>Maryland Sports Authority</t>
+  </si>
+  <si>
+    <t>State appropriation</t>
+  </si>
+  <si>
+    <t>US Cellular Field</t>
+  </si>
+  <si>
+    <t>Illinois Sports Authority</t>
+  </si>
+  <si>
+    <t>Sales tax</t>
+  </si>
+  <si>
+    <t>City of Cleveland, Ohio</t>
+  </si>
+  <si>
+    <t>City appropriation</t>
+  </si>
+  <si>
+    <t>Stadium</t>
+  </si>
+  <si>
+    <t>Comerica Park</t>
+  </si>
+  <si>
+    <t>Hotel tax, car rental tax</t>
+  </si>
+  <si>
+    <t>Authority</t>
+  </si>
+  <si>
+    <t>University of Phoenix</t>
+  </si>
+  <si>
+    <t>Arizona Sports and Tourism</t>
+  </si>
+  <si>
+    <t>Hotel tax, car rental tax, jock tax,</t>
+  </si>
+  <si>
+    <t>sales tax</t>
+  </si>
+  <si>
+    <t>Toyota Center</t>
+  </si>
+  <si>
+    <t>Marlins Park</t>
+  </si>
+  <si>
+    <t>Miami Dade County</t>
+  </si>
+  <si>
+    <t>Target Field</t>
+  </si>
+  <si>
+    <t>Hennepin County</t>
+  </si>
+  <si>
+    <t>Amway Center</t>
+  </si>
+  <si>
+    <t>City of Orlando, Florida</t>
+  </si>
+  <si>
+    <t>Hotel tax, city appropriations</t>
+  </si>
+  <si>
+    <t>EXHIBIT 1.3 2014 Southeastern Conference athletic department donations (cash only).</t>
+  </si>
+  <si>
+    <t>SCHOOL</t>
+  </si>
+  <si>
+    <t>TOTAL DONATIONS</t>
+  </si>
+  <si>
+    <t>MAJOR GIFTS</t>
+  </si>
+  <si>
+    <t>ANNUAL GIVING</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>$45,881,118</t>
+  </si>
+  <si>
+    <t>$15,818,729</t>
+  </si>
+  <si>
+    <t>$30,062,389</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>$26,750,000</t>
+  </si>
+  <si>
+    <t>$4,800,000</t>
+  </si>
+  <si>
+    <t>$21,300,000</t>
+  </si>
+  <si>
+    <t>Auburn</t>
+  </si>
+  <si>
+    <t>$37,500,000</t>
+  </si>
+  <si>
+    <t>$9,000,000</t>
+  </si>
+  <si>
+    <t>$26,700,000</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>$47,939,603</t>
+  </si>
+  <si>
+    <t>$12,721,864</t>
+  </si>
+  <si>
+    <t>$35,217,739</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>$34,054,000</t>
+  </si>
+  <si>
+    <t>$5,660,000</t>
+  </si>
+  <si>
+    <t>$28,474,000</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>$24,808,367</t>
+  </si>
+  <si>
+    <t>$6,109,026</t>
+  </si>
+  <si>
+    <t>$18,699,340</t>
+  </si>
+  <si>
+    <t>LSU</t>
+  </si>
+  <si>
+    <t>$34,100,000</t>
+  </si>
+  <si>
+    <t>$10,600,000</t>
+  </si>
+  <si>
+    <t>$23,500,000</t>
+  </si>
+  <si>
+    <t>Mississippi State</t>
+  </si>
+  <si>
+    <t>$25,910,094</t>
+  </si>
+  <si>
+    <t>$9,095,428</t>
+  </si>
+  <si>
+    <t>$13,738,184</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>$14,720,000</t>
+  </si>
+  <si>
+    <t>$2,010,000</t>
+  </si>
+  <si>
+    <t>$10,100,000</t>
+  </si>
+  <si>
+    <t>Ole Miss</t>
+  </si>
+  <si>
+    <t>$26,200,000</t>
+  </si>
+  <si>
+    <t>$5,700,000</t>
+  </si>
+  <si>
+    <t>$14,700,000</t>
+  </si>
+  <si>
+    <t>South Carolina</t>
+  </si>
+  <si>
+    <t>$31,500,000</t>
+  </si>
+  <si>
+    <t>$6,200,000</t>
+  </si>
+  <si>
+    <t>$13,600,000</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>$33,466,660</t>
+  </si>
+  <si>
+    <t>$9,556,160</t>
+  </si>
+  <si>
+    <t>$22,780,285</t>
+  </si>
+  <si>
+    <t>Texas A&amp;M</t>
+  </si>
+  <si>
+    <t>$85,379,483</t>
+  </si>
+  <si>
+    <t>$51,868,435</t>
+  </si>
+  <si>
+    <t>$28,000,000</t>
+  </si>
+  <si>
+    <t>Vanderbilt</t>
+  </si>
+  <si>
+    <t>$10,400,000</t>
+  </si>
+  <si>
+    <t>$5,300,000</t>
+  </si>
+  <si>
+    <t>$5,100,000</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>$34,186,380</t>
+  </si>
+  <si>
+    <t>$11,031,403</t>
+  </si>
+  <si>
+    <t>$20,855,138</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>Houston-Harris County Sports Authority</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Detroit/Wayne County Stadium Authority</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cleveland Browns Stadium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great American Ballpark </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Hamilton County, Ohio </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hotel tax, tourism tax, county appropriations</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales tax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hotel tax, state appropriation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>场馆名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,14 +356,520 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>选择由税收担保的体场馆债券</t>
+    <t>Source: UBS Wealth Management Research (2012).</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AT＆T体育场</t>
-  </si>
-  <si>
-    <t>Camden球场</t>
+    <t>学校</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总赠予</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要赠予</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年赠予</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXHIBIT 1.3 2014 Southeastern Conference athletic department donations (cash only).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXHIBIT 1.4 Top athletic department endowments in the SEC (2014).</t>
+  </si>
+  <si>
+    <t>Arkansas*</t>
+  </si>
+  <si>
+    <t>Source: 2014 SEC Development Survey.</t>
+  </si>
+  <si>
+    <t>捐赠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*Not including monies in university foundation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXHIBIT 1.5 NAICS codes for sport businesses.</t>
+  </si>
+  <si>
+    <t>Manufacturing</t>
+  </si>
+  <si>
+    <t>Apparel Knitting Mills</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Miscellaneous Manufacturing</t>
+  </si>
+  <si>
+    <t>Wholesale Trade</t>
+  </si>
+  <si>
+    <t>Retail Trade</t>
+  </si>
+  <si>
+    <t>Miscellaneous Store Retailers</t>
+  </si>
+  <si>
+    <t>Information</t>
+  </si>
+  <si>
+    <t>Broadcasting (except Internet)</t>
+  </si>
+  <si>
+    <t>Internet</t>
+  </si>
+  <si>
+    <t>Real Estate and Rental Leasing</t>
+  </si>
+  <si>
+    <t>Rental and Leasing Services</t>
+  </si>
+  <si>
+    <t>Educational Services</t>
+  </si>
+  <si>
+    <t>Health Care and Social Assistance</t>
+  </si>
+  <si>
+    <t>代码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>行业</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>子行业</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>体育商业类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>237</t>
+  </si>
+  <si>
+    <t>Construction</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heavy and Civil Engineering Construction</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Field Construction</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>315</t>
+  </si>
+  <si>
+    <t>Manufacturing</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sport Apparel</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>335</t>
+  </si>
+  <si>
+    <t>Electrical Equipment, Appliance, and Component Manufacturing</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stadium Lighting</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>339</t>
+  </si>
+  <si>
+    <t>Sporting Goods Manufacturing</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>423</t>
+  </si>
+  <si>
+    <t>Merchant Wholesalers, Durable Goods</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sporting Goods Wholesale</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>424</t>
+  </si>
+  <si>
+    <t>Merchant Wholesalers, Nondurable Goods</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sportswear</t>
+  </si>
+  <si>
+    <t>451</t>
+  </si>
+  <si>
+    <t>Sporting Goods, Hobby, Book, and Music Stores</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sporting Goods</t>
+  </si>
+  <si>
+    <t>453</t>
+  </si>
+  <si>
+    <t>Used Sporting Goods</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>515</t>
+  </si>
+  <si>
+    <t>Sports Television</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>516</t>
+  </si>
+  <si>
+    <t>Sport Internet Sites</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>532</t>
+  </si>
+  <si>
+    <t>Sports Equipment Rental</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>561</t>
+  </si>
+  <si>
+    <t>Administrative and Support and Waste Management and Remediation Services</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Administrative and Support  Services</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ticketing</t>
+  </si>
+  <si>
+    <t>611</t>
+  </si>
+  <si>
+    <t>Sport and Recreation Instruction</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ambulatory Health Care Services </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sports Physical</t>
+  </si>
+  <si>
+    <t>711</t>
+  </si>
+  <si>
+    <t>Arts, Entertainment, and Recreation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Performing Arts, Spectator Sports and Related Industries</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spectator Sports</t>
+  </si>
+  <si>
+    <t>712</t>
+  </si>
+  <si>
+    <t>Museums, Historical Sites, and Similar Institutions</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Halls of Fame</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arts, Entertainment, and Recreation </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amusement, Gambling, and Recreation Industries</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Recreation and Club Sports </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>722</t>
+  </si>
+  <si>
+    <t>Accommodation and Food Services</t>
+  </si>
+  <si>
+    <t>Food Services and Drinking Places</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Concessions</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>811</t>
+  </si>
+  <si>
+    <t>Other Services (except Public Administration)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Repair and Maintenance</t>
+  </si>
+  <si>
+    <t>Sport Equipment Repair</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>813</t>
+  </si>
+  <si>
+    <t>Religious, Grantmaking, Civic, Professional, and Similar Organizations</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leagues and Governing Bodies</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Source: www.census.gov/cgi-bin/sssd/naics/naicsrch?chart=2012.</t>
+  </si>
+  <si>
+    <t>711211</t>
+  </si>
+  <si>
+    <t>Sports Teams and Clubs</t>
+  </si>
+  <si>
+    <t>711212</t>
+  </si>
+  <si>
+    <t>Racetracks</t>
+  </si>
+  <si>
+    <t>711219</t>
+  </si>
+  <si>
+    <t>Other Spectator Sports</t>
+  </si>
+  <si>
+    <t>711310</t>
+  </si>
+  <si>
+    <t>Promoters of Performing Arts, Sports, and Similar Events with Facilities</t>
+  </si>
+  <si>
+    <t>711320</t>
+  </si>
+  <si>
+    <t>Promoters of Performing Arts, Sports, and Similar Events without Facilities</t>
+  </si>
+  <si>
+    <t>711410</t>
+  </si>
+  <si>
+    <t>Agents and Managers for Artists, Athletes, Entertainers, and Other Public Figures</t>
+  </si>
+  <si>
+    <t>712110</t>
+  </si>
+  <si>
+    <t>Museums</t>
+  </si>
+  <si>
+    <t>713910</t>
+  </si>
+  <si>
+    <t>Golf Courses and Country Clubs</t>
+  </si>
+  <si>
+    <t>713920</t>
+  </si>
+  <si>
+    <t>Skiing Facilities</t>
+  </si>
+  <si>
+    <t>713930</t>
+  </si>
+  <si>
+    <t>Marinas</t>
+  </si>
+  <si>
+    <t>713940</t>
+  </si>
+  <si>
+    <t>Fitness and Recreational Sports Centers</t>
+  </si>
+  <si>
+    <t>713950</t>
+  </si>
+  <si>
+    <t>Bowling Centers</t>
+  </si>
+  <si>
+    <t>713990</t>
+  </si>
+  <si>
+    <t>All Other Amusement and Recreation Industries</t>
+  </si>
+  <si>
+    <t>Source: www.census.gov/cgi-bin/sssd/naics/naicsrch.</t>
+  </si>
+  <si>
+    <t>EXHIBIT 1.6 Sport-related business divisions within NAICS Code 71: Arts, Entertainment, and Recreation.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表1.6 NAICS 代码71中与体育有关的商业部门: 艺术、娱乐和休闲。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAICS 代码</t>
+  </si>
+  <si>
+    <t>定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>−6.02</t>
+  </si>
+  <si>
+    <t>−3.53</t>
+  </si>
+  <si>
+    <t>Source: Meek (1997); Milano and Chelladurai (2011).</t>
+  </si>
+  <si>
+    <t>207.50</t>
+  </si>
+  <si>
+    <t>189.34</t>
+  </si>
+  <si>
+    <t>194.74</t>
+  </si>
+  <si>
+    <t>1.31</t>
+  </si>
+  <si>
+    <t>0.66</t>
+  </si>
+  <si>
+    <t>Sport net exports</t>
+  </si>
+  <si>
+    <t>27.61</t>
+  </si>
+  <si>
+    <t>22.97</t>
+  </si>
+  <si>
+    <t>15.14</t>
+  </si>
+  <si>
+    <t>Sport investment</t>
+  </si>
+  <si>
+    <t>15.49</t>
+  </si>
+  <si>
+    <t>14.78</t>
+  </si>
+  <si>
+    <t>9.64</t>
+  </si>
+  <si>
+    <t>Non-sport-related advertising</t>
+  </si>
+  <si>
+    <t>112.19</t>
+  </si>
+  <si>
+    <t>105.68</t>
+  </si>
+  <si>
+    <t>119.38</t>
+  </si>
+  <si>
+    <t>Products and services</t>
+  </si>
+  <si>
+    <t>54.44</t>
+  </si>
+  <si>
+    <t>48.79</t>
+  </si>
+  <si>
+    <t>56.61</t>
+  </si>
+  <si>
+    <t>Entertainment and recreation</t>
+  </si>
+  <si>
+    <t>行业部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1995年估计(十亿美元)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2005年适度估计(十亿美元)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2005年自由估计(十亿美元)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sport-related government expenditures</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -53,7 +877,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,6 +896,19 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -78,12 +918,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -92,10 +947,19 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="24" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -376,39 +1240,1575 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:E6"/>
+  <dimension ref="G3:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F1" sqref="B1:F1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="47.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" t="s">
+        <v>31</v>
+      </c>
+      <c r="J18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19" t="s">
+        <v>34</v>
+      </c>
+      <c r="I19" t="s">
+        <v>35</v>
+      </c>
+      <c r="J19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20" t="s">
+        <v>39</v>
+      </c>
+      <c r="J20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" t="s">
+        <v>42</v>
+      </c>
+      <c r="I21" t="s">
+        <v>43</v>
+      </c>
+      <c r="J21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>47</v>
+      </c>
+      <c r="J22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>49</v>
+      </c>
+      <c r="H23" t="s">
+        <v>50</v>
+      </c>
+      <c r="I23" t="s">
+        <v>51</v>
+      </c>
+      <c r="J23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>53</v>
+      </c>
+      <c r="H24" t="s">
+        <v>54</v>
+      </c>
+      <c r="I24" t="s">
+        <v>55</v>
+      </c>
+      <c r="J24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
+        <v>57</v>
+      </c>
+      <c r="H25" t="s">
+        <v>58</v>
+      </c>
+      <c r="I25" t="s">
+        <v>59</v>
+      </c>
+      <c r="J25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G26" t="s">
+        <v>61</v>
+      </c>
+      <c r="H26" t="s">
+        <v>62</v>
+      </c>
+      <c r="I26" t="s">
+        <v>63</v>
+      </c>
+      <c r="J26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G27" t="s">
+        <v>65</v>
+      </c>
+      <c r="H27" t="s">
+        <v>66</v>
+      </c>
+      <c r="I27" t="s">
+        <v>67</v>
+      </c>
+      <c r="J27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G28" t="s">
+        <v>69</v>
+      </c>
+      <c r="H28" t="s">
+        <v>70</v>
+      </c>
+      <c r="I28" t="s">
+        <v>71</v>
+      </c>
+      <c r="J28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G29" t="s">
+        <v>73</v>
+      </c>
+      <c r="H29" t="s">
+        <v>74</v>
+      </c>
+      <c r="I29" t="s">
+        <v>75</v>
+      </c>
+      <c r="J29" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G30" t="s">
+        <v>77</v>
+      </c>
+      <c r="H30" t="s">
+        <v>78</v>
+      </c>
+      <c r="I30" t="s">
+        <v>79</v>
+      </c>
+      <c r="J30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G31" t="s">
+        <v>81</v>
+      </c>
+      <c r="H31" t="s">
+        <v>82</v>
+      </c>
+      <c r="I31" t="s">
+        <v>83</v>
+      </c>
+      <c r="J31" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G32" t="s">
+        <v>85</v>
+      </c>
+      <c r="H32" t="s">
+        <v>86</v>
+      </c>
+      <c r="I32" t="s">
+        <v>87</v>
+      </c>
+      <c r="J32" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G33" t="s">
+        <v>89</v>
+      </c>
+      <c r="H33" t="s">
+        <v>90</v>
+      </c>
+      <c r="I33" t="s">
+        <v>91</v>
+      </c>
+      <c r="J33" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G34" t="s">
+        <v>0</v>
+      </c>
+      <c r="H34" t="s">
+        <v>0</v>
+      </c>
+      <c r="I34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="2">
+        <v>45881118</v>
+      </c>
+      <c r="D4" s="2">
+        <v>15818729</v>
+      </c>
+      <c r="E4" s="2">
+        <v>30062389</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="2">
+        <v>26750000</v>
+      </c>
+      <c r="D5" s="2">
+        <v>4800000</v>
+      </c>
+      <c r="E5" s="2">
+        <v>21300000</v>
+      </c>
+      <c r="F5" s="2">
+        <v>650000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="2">
+        <v>37500000</v>
+      </c>
+      <c r="D6" s="2">
+        <v>9000000</v>
+      </c>
+      <c r="E6" s="2">
+        <v>26700000</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1800000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="2">
+        <v>47939603</v>
+      </c>
+      <c r="D7" s="2">
+        <v>12721864</v>
+      </c>
+      <c r="E7" s="2">
+        <v>35217739</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="2">
+        <v>34054000</v>
+      </c>
+      <c r="D8" s="2">
+        <v>5660000</v>
+      </c>
+      <c r="E8" s="2">
+        <v>28474000</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="2">
+        <v>24808367</v>
+      </c>
+      <c r="D9" s="2">
+        <v>6109026</v>
+      </c>
+      <c r="E9" s="2">
+        <v>18699340</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="2">
+        <v>34100000</v>
+      </c>
+      <c r="D10" s="2">
+        <v>10600000</v>
+      </c>
+      <c r="E10" s="2">
+        <v>23500000</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="2">
+        <v>25910094</v>
+      </c>
+      <c r="D11" s="2">
+        <v>9095428</v>
+      </c>
+      <c r="E11" s="2">
+        <v>13738184</v>
+      </c>
+      <c r="F11" s="2">
+        <v>3076482</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="2">
+        <v>14720000</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2010000</v>
+      </c>
+      <c r="E12" s="2">
+        <v>10100000</v>
+      </c>
+      <c r="F12" s="2">
+        <v>2610000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="2">
+        <v>26200000</v>
+      </c>
+      <c r="D13" s="2">
+        <v>5700000</v>
+      </c>
+      <c r="E13" s="2">
+        <v>14700000</v>
+      </c>
+      <c r="F13" s="2">
+        <v>5800000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="2">
+        <v>31500000</v>
+      </c>
+      <c r="D14" s="2">
+        <v>6200000</v>
+      </c>
+      <c r="E14" s="2">
+        <v>13600000</v>
+      </c>
+      <c r="F14" s="2">
+        <v>11700000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="2">
+        <v>33466660</v>
+      </c>
+      <c r="D15" s="2">
+        <v>9556160</v>
+      </c>
+      <c r="E15" s="2">
+        <v>22780285</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1130215</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="2">
+        <v>85379483</v>
+      </c>
+      <c r="D16" s="2">
+        <v>51868435</v>
+      </c>
+      <c r="E16" s="2">
+        <v>28000000</v>
+      </c>
+      <c r="F16" s="2">
+        <v>5511048</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="2">
+        <v>10400000</v>
+      </c>
+      <c r="D17" s="2">
+        <v>5300000</v>
+      </c>
+      <c r="E17" s="2">
+        <v>5100000</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="2">
+        <v>34186380</v>
+      </c>
+      <c r="D18" s="2">
+        <v>11031403</v>
+      </c>
+      <c r="E18" s="2">
+        <v>20855138</v>
+      </c>
+      <c r="F18" s="2">
+        <v>2299839</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.77734375" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="2">
+        <v>70000000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="2">
+        <v>64300000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="2">
+        <v>63487245</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="2">
+        <v>47000000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="2">
+        <v>36380429</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="2">
+        <v>30740818</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="2">
+        <v>29760000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="2">
+        <v>18498823</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="2">
+        <v>10900000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="2">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="2">
+        <v>8972749</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="2">
+        <v>5752138</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="2">
+        <v>3100000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="2">
+        <v>3100000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="3"/>
+      <c r="C15" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="3"/>
+      <c r="C19" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="3"/>
+      <c r="C20" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="3"/>
+      <c r="C21" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="3"/>
+      <c r="C22" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="3"/>
+      <c r="C23" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="85.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="75.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="3" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C6" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="14" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="16" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C16" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C19" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>223</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C5:F15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="49" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="26.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C7" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C8" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C9" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C10" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C11" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C12" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C13" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C14" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C15" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
